--- a/StructureDefinition-ext-R5-FamilyMemberHistory.procedure.xlsx
+++ b/StructureDefinition-ext-R5-FamilyMemberHistory.procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `FamilyMemberHistory.procedure` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `FamilyMemberHistory.procedure` is mapped to FHIR R4 structure `FamilyMemberHistory`, but has no target element specified.</t>
+Element `FamilyMemberHistory.procedure` is will have a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:FamilyMemberHistory</t>
   </si>
   <si>
     <t>ID</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `FamilyMemberHistory.procedure.code` is part of an existing definition because parent element `FamilyMemberHistory.procedure` requires a cross-version extension.
-Element `FamilyMemberHistory.procedure.code` is mapped to FHIR R4 structure `FamilyMemberHistory`, but has no target element specified.</t>
+Element `FamilyMemberHistory.procedure.code` is will have a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -431,7 +431,7 @@
   </si>
   <si>
     <t>Element `FamilyMemberHistory.procedure.outcome` is part of an existing definition because parent element `FamilyMemberHistory.procedure` requires a cross-version extension.
-Element `FamilyMemberHistory.procedure.outcome` is mapped to FHIR R4 structure `FamilyMemberHistory`, but has no target element specified.</t>
+Element `FamilyMemberHistory.procedure.outcome` is will have a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
   </si>
   <si>
     <t>Extension.extension:outcome.id</t>
@@ -465,7 +465,7 @@
   </si>
   <si>
     <t>Element `FamilyMemberHistory.procedure.contributedToDeath` is part of an existing definition because parent element `FamilyMemberHistory.procedure` requires a cross-version extension.
-Element `FamilyMemberHistory.procedure.contributedToDeath` is mapped to FHIR R4 structure `FamilyMemberHistory`, but has no target element specified.</t>
+Element `FamilyMemberHistory.procedure.contributedToDeath` is will have a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
   </si>
   <si>
     <t>Extension.extension:contributedToDeath.id</t>
@@ -497,7 +497,7 @@
   </si>
   <si>
     <t>Element `FamilyMemberHistory.procedure.performed[x]` is part of an existing definition because parent element `FamilyMemberHistory.procedure` requires a cross-version extension.
-Element `FamilyMemberHistory.procedure.performed[x]` is mapped to FHIR R4 structure `FamilyMemberHistory`, but has no target element specified.</t>
+Element `FamilyMemberHistory.procedure.performed[x]` is will have a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
   </si>
   <si>
     <t>Extension.extension:performed.id</t>
@@ -529,7 +529,7 @@
   </si>
   <si>
     <t>Element `FamilyMemberHistory.procedure.note` is part of an existing definition because parent element `FamilyMemberHistory.procedure` requires a cross-version extension.
-Element `FamilyMemberHistory.procedure.note` is mapped to FHIR R4 structure `FamilyMemberHistory`, but has no target element specified.</t>
+Element `FamilyMemberHistory.procedure.note` is will have a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
   </si>
   <si>
     <t>Extension.extension:note.id</t>
@@ -895,7 +895,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="153.9921875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="168.14453125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-FamilyMemberHistory.procedure.xlsx
+++ b/StructureDefinition-ext-R5-FamilyMemberHistory.procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="177">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `FamilyMemberHistory.procedure` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `FamilyMemberHistory.procedure` is will have a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
+Element `FamilyMemberHistory.procedure` has a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `FamilyMemberHistory.procedure.code` is part of an existing definition because parent element `FamilyMemberHistory.procedure` requires a cross-version extension.
-Element `FamilyMemberHistory.procedure.code` is will have a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
+Element `FamilyMemberHistory.procedure.code` has a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -386,6 +386,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.procedure.code</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -431,7 +434,7 @@
   </si>
   <si>
     <t>Element `FamilyMemberHistory.procedure.outcome` is part of an existing definition because parent element `FamilyMemberHistory.procedure` requires a cross-version extension.
-Element `FamilyMemberHistory.procedure.outcome` is will have a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
+Element `FamilyMemberHistory.procedure.outcome` has a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
   </si>
   <si>
     <t>Extension.extension:outcome.id</t>
@@ -443,6 +446,9 @@
     <t>Extension.extension:outcome.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.procedure.outcome</t>
+  </si>
+  <si>
     <t>Extension.extension:outcome.value[x]</t>
   </si>
   <si>
@@ -465,7 +471,7 @@
   </si>
   <si>
     <t>Element `FamilyMemberHistory.procedure.contributedToDeath` is part of an existing definition because parent element `FamilyMemberHistory.procedure` requires a cross-version extension.
-Element `FamilyMemberHistory.procedure.contributedToDeath` is will have a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
+Element `FamilyMemberHistory.procedure.contributedToDeath` has a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
   </si>
   <si>
     <t>Extension.extension:contributedToDeath.id</t>
@@ -475,6 +481,9 @@
   </si>
   <si>
     <t>Extension.extension:contributedToDeath.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.procedure.contributedToDeath</t>
   </si>
   <si>
     <t>Extension.extension:contributedToDeath.value[x]</t>
@@ -497,7 +506,7 @@
   </si>
   <si>
     <t>Element `FamilyMemberHistory.procedure.performed[x]` is part of an existing definition because parent element `FamilyMemberHistory.procedure` requires a cross-version extension.
-Element `FamilyMemberHistory.procedure.performed[x]` is will have a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
+Element `FamilyMemberHistory.procedure.performed[x]` has a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
   </si>
   <si>
     <t>Extension.extension:performed.id</t>
@@ -507,6 +516,9 @@
   </si>
   <si>
     <t>Extension.extension:performed.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.procedure.performed</t>
   </si>
   <si>
     <t>Extension.extension:performed.value[x]</t>
@@ -529,7 +541,7 @@
   </si>
   <si>
     <t>Element `FamilyMemberHistory.procedure.note` is part of an existing definition because parent element `FamilyMemberHistory.procedure` requires a cross-version extension.
-Element `FamilyMemberHistory.procedure.note` is will have a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
+Element `FamilyMemberHistory.procedure.note` has a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
   </si>
   <si>
     <t>Extension.extension:note.id</t>
@@ -539,6 +551,9 @@
   </si>
   <si>
     <t>Extension.extension:note.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.procedure.note</t>
   </si>
   <si>
     <t>Extension.extension:note.value[x]</t>
@@ -895,7 +910,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="168.14453125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="162.15625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1701,7 +1716,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1743,7 +1758,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1758,15 +1773,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1789,7 +1804,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1822,13 +1837,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1846,7 +1861,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1858,21 +1873,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1897,14 +1912,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1973,7 +1988,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2076,7 +2091,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2181,7 +2196,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2224,7 +2239,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2266,7 +2281,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2281,15 +2296,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2312,13 +2327,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2345,13 +2360,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2369,7 +2384,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2381,21 +2396,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2420,14 +2435,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2496,7 +2511,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2599,7 +2614,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2704,7 +2719,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2747,7 +2762,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2789,7 +2804,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -2804,15 +2819,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2835,13 +2850,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2892,7 +2907,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2904,21 +2919,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2943,14 +2958,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3019,7 +3034,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3122,7 +3137,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3227,7 +3242,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3270,7 +3285,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3312,7 +3327,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -3327,15 +3342,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3358,13 +3373,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3415,7 +3430,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3427,21 +3442,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3466,14 +3481,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3542,7 +3557,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3645,7 +3660,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -3750,7 +3765,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3793,7 +3808,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3835,7 +3850,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -3850,15 +3865,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3881,13 +3896,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3938,7 +3953,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -3950,18 +3965,18 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4043,7 +4058,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>86</v>
@@ -4058,15 +4073,15 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4089,13 +4104,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4146,7 +4161,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4158,10 +4173,10 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-FamilyMemberHistory.procedure.xlsx
+++ b/StructureDefinition-ext-R5-FamilyMemberHistory.procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="172">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -405,15 +405,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A code to identify a specific procedure.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-procedure-code-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -450,12 +441,6 @@
   </si>
   <si>
     <t>Extension.extension:outcome.value[x]</t>
-  </si>
-  <si>
-    <t>The result of the procedure; e.g. death, permanent disability, temporary disability, etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-clinical-findings-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:contributedToDeath</t>
@@ -920,8 +905,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.36328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.2265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1837,43 +1822,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>120</v>
@@ -1881,13 +1866,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1912,14 +1897,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1988,7 +1973,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2091,7 +2076,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2196,7 +2181,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2239,7 +2224,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2301,7 +2286,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>122</v>
@@ -2330,10 +2315,10 @@
         <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2360,32 +2345,32 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
@@ -2396,7 +2381,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>120</v>
@@ -2404,13 +2389,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2435,14 +2420,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2511,7 +2496,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2614,7 +2599,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2719,7 +2704,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2762,7 +2747,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2824,7 +2809,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>122</v>
@@ -2850,13 +2835,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2907,7 +2892,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2919,7 +2904,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>120</v>
@@ -2927,13 +2912,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2958,14 +2943,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3034,7 +3019,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3137,7 +3122,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3242,7 +3227,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3285,7 +3270,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3347,7 +3332,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>122</v>
@@ -3373,13 +3358,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3430,7 +3415,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3442,7 +3427,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>120</v>
@@ -3450,13 +3435,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3481,14 +3466,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3557,7 +3542,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3660,7 +3645,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -3765,7 +3750,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3808,7 +3793,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3870,7 +3855,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>122</v>
@@ -3896,13 +3881,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3953,7 +3938,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -3965,7 +3950,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>120</v>
@@ -4078,10 +4063,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4104,13 +4089,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4161,7 +4146,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4173,7 +4158,7 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>120</v>

--- a/StructureDefinition-ext-R5-FamilyMemberHistory.procedure.xlsx
+++ b/StructureDefinition-ext-R5-FamilyMemberHistory.procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="167">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -338,8 +338,7 @@
     <t>The actual procedure specified. Could be a coded procedure or a less specific string depending on how much is known about the procedure and the capabilities of the creating system.</t>
   </si>
   <si>
-    <t>Element `FamilyMemberHistory.procedure.code` is part of an existing definition because parent element `FamilyMemberHistory.procedure` requires a cross-version extension.
-Element `FamilyMemberHistory.procedure.code` has a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
+    <t>Element `FamilyMemberHistory.procedure.code` has a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -386,9 +385,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.procedure.code</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -424,8 +420,7 @@
     <t>Indicates what happened following the procedure. If the procedure resulted in death, deceased date is captured on the relation.</t>
   </si>
   <si>
-    <t>Element `FamilyMemberHistory.procedure.outcome` is part of an existing definition because parent element `FamilyMemberHistory.procedure` requires a cross-version extension.
-Element `FamilyMemberHistory.procedure.outcome` has a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
+    <t>Element `FamilyMemberHistory.procedure.outcome` has a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
   </si>
   <si>
     <t>Extension.extension:outcome.id</t>
@@ -437,9 +432,6 @@
     <t>Extension.extension:outcome.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.procedure.outcome</t>
-  </si>
-  <si>
     <t>Extension.extension:outcome.value[x]</t>
   </si>
   <si>
@@ -455,8 +447,7 @@
     <t>This procedure contributed to the cause of death of the related person. If contributedToDeath is not populated, then it is unknown.</t>
   </si>
   <si>
-    <t>Element `FamilyMemberHistory.procedure.contributedToDeath` is part of an existing definition because parent element `FamilyMemberHistory.procedure` requires a cross-version extension.
-Element `FamilyMemberHistory.procedure.contributedToDeath` has a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
+    <t>Element `FamilyMemberHistory.procedure.contributedToDeath` has a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
   </si>
   <si>
     <t>Extension.extension:contributedToDeath.id</t>
@@ -466,9 +457,6 @@
   </si>
   <si>
     <t>Extension.extension:contributedToDeath.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.procedure.contributedToDeath</t>
   </si>
   <si>
     <t>Extension.extension:contributedToDeath.value[x]</t>
@@ -490,8 +478,7 @@
     <t>Estimated or actual date, date-time, period, or age when the procedure was performed. Allows a period to support complex procedures that span more than one date, and also allows for the length of the procedure to be captured.</t>
   </si>
   <si>
-    <t>Element `FamilyMemberHistory.procedure.performed[x]` is part of an existing definition because parent element `FamilyMemberHistory.procedure` requires a cross-version extension.
-Element `FamilyMemberHistory.procedure.performed[x]` has a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
+    <t>Element `FamilyMemberHistory.procedure.performed[x]` has a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
   </si>
   <si>
     <t>Extension.extension:performed.id</t>
@@ -501,9 +488,6 @@
   </si>
   <si>
     <t>Extension.extension:performed.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.procedure.performed</t>
   </si>
   <si>
     <t>Extension.extension:performed.value[x]</t>
@@ -525,8 +509,7 @@
     <t>An area where general notes can be placed about this specific procedure.</t>
   </si>
   <si>
-    <t>Element `FamilyMemberHistory.procedure.note` is part of an existing definition because parent element `FamilyMemberHistory.procedure` requires a cross-version extension.
-Element `FamilyMemberHistory.procedure.note` has a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
+    <t>Element `FamilyMemberHistory.procedure.note` has a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
   </si>
   <si>
     <t>Extension.extension:note.id</t>
@@ -536,9 +519,6 @@
   </si>
   <si>
     <t>Extension.extension:note.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.procedure.note</t>
   </si>
   <si>
     <t>Extension.extension:note.value[x]</t>
@@ -1701,72 +1681,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1789,7 +1769,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1846,33 +1826,33 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1897,14 +1877,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1973,7 +1953,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2076,7 +2056,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2181,7 +2161,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2224,7 +2204,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2266,30 +2246,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2312,13 +2292,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2369,33 +2349,33 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2420,14 +2400,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2496,7 +2476,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2599,7 +2579,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2704,7 +2684,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2747,7 +2727,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2789,30 +2769,30 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2835,13 +2815,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2892,33 +2872,33 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2943,14 +2923,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3019,7 +2999,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3122,7 +3102,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3227,7 +3207,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3270,7 +3250,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3312,30 +3292,30 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3358,13 +3338,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3415,33 +3395,33 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3466,14 +3446,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3542,7 +3522,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3645,7 +3625,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -3750,7 +3730,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3793,7 +3773,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3835,30 +3815,30 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3881,13 +3861,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3938,30 +3918,30 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4043,30 +4023,30 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4089,13 +4069,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4146,22 +4126,22 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
